--- a/Part 1/tagged data/original_samples/Red_Hat_Developer_Website_v2.xlsx
+++ b/Part 1/tagged data/original_samples/Red_Hat_Developer_Website_v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://solisservices-my.sharepoint.com/personal/a_t_vancan_uu_nl/Documents/Documents/jira_datasets/Selection projects/Projects/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://solisservices-my.sharepoint.com/personal/a_t_vancan_uu_nl/Documents/Documents/Information and Software Technology/Appendix IST/Part 1/tagged data/original_samples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_3285359B5B80DFF9F4A913D04B5ED87656CFDA47" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54903579-5340-42ED-901F-28CEDA364E0B}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_3285359B5B80DFF9F4A913D04B5ED87656CFDA47" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7703D312-AEDD-4DA0-92D1-976E3A7D0ED2}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-2370" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2672,18 +2672,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2988,13 +2983,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="79.88671875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="79.88671875" style="3" customWidth="1"/>
     <col min="6" max="6" width="18.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3005,7 +3000,7 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -3035,7 +3030,7 @@
         <v>42999.337268518517</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>732582</v>
       </c>
@@ -3045,7 +3040,7 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E3" t="s">
@@ -3055,7 +3050,7 @@
         <v>42998.388668981483</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>732583</v>
       </c>
@@ -3065,7 +3060,7 @@
       <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E4" t="s">
@@ -3075,7 +3070,7 @@
         <v>42997.770277777781</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>732584</v>
       </c>
@@ -3085,7 +3080,7 @@
       <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E5" t="s">
@@ -3095,7 +3090,7 @@
         <v>42997.769467592603</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>732585</v>
       </c>
@@ -3105,7 +3100,7 @@
       <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E6" t="s">
@@ -3125,7 +3120,7 @@
       <c r="C7" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E7" t="s">
@@ -3138,7 +3133,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>732587</v>
       </c>
@@ -3148,7 +3143,7 @@
       <c r="C8" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E8" t="s">
@@ -3161,7 +3156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>732594</v>
       </c>
@@ -3171,7 +3166,7 @@
       <c r="C9" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E9" t="s">
@@ -3184,7 +3179,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>732595</v>
       </c>
@@ -3194,7 +3189,7 @@
       <c r="C10" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E10" t="s">
@@ -3204,7 +3199,7 @@
         <v>42993.172615740739</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>732596</v>
       </c>
@@ -3214,7 +3209,7 @@
       <c r="C11" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E11" t="s">
@@ -3224,7 +3219,7 @@
         <v>42992.627523148149</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>732597</v>
       </c>
@@ -3234,7 +3229,7 @@
       <c r="C12" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E12" t="s">
@@ -3244,7 +3239,7 @@
         <v>42992.488425925927</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>732598</v>
       </c>
@@ -3254,7 +3249,7 @@
       <c r="C13" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E13" t="s">
@@ -3264,7 +3259,7 @@
         <v>42992.487210648149</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="288" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>732599</v>
       </c>
@@ -3274,7 +3269,7 @@
       <c r="C14" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E14" t="s">
@@ -3284,7 +3279,7 @@
         <v>42992.372824074067</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="360" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>732600</v>
       </c>
@@ -3294,7 +3289,7 @@
       <c r="C15" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E15" t="s">
@@ -3307,7 +3302,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="403.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>732601</v>
       </c>
@@ -3317,7 +3312,7 @@
       <c r="C16" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E16" t="s">
@@ -3330,7 +3325,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>732602</v>
       </c>
@@ -3340,7 +3335,7 @@
       <c r="C17" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>37</v>
       </c>
       <c r="E17" t="s">
@@ -3401,7 +3396,7 @@
         <v>42989.424351851849</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="360" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>732607</v>
       </c>
@@ -3411,7 +3406,7 @@
       <c r="C21" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E21" t="s">
@@ -3421,7 +3416,7 @@
         <v>42989.423796296287</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>732608</v>
       </c>
@@ -3431,7 +3426,7 @@
       <c r="C22" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E22" t="s">
@@ -3441,7 +3436,7 @@
         <v>42988.618055555547</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>732610</v>
       </c>
@@ -3451,7 +3446,7 @@
       <c r="C23" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E23" t="s">
@@ -3484,7 +3479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>732612</v>
       </c>
@@ -3494,7 +3489,7 @@
       <c r="C25" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E25" t="s">
@@ -3504,7 +3499,7 @@
         <v>42984.726053240738</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>732613</v>
       </c>
@@ -3514,7 +3509,7 @@
       <c r="C26" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="3" t="s">
         <v>51</v>
       </c>
       <c r="E26" t="s">
@@ -3527,7 +3522,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>732616</v>
       </c>
@@ -3537,7 +3532,7 @@
       <c r="C27" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="3" t="s">
         <v>53</v>
       </c>
       <c r="E27" t="s">
@@ -3547,7 +3542,7 @@
         <v>42984.378900462973</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>732618</v>
       </c>
@@ -3557,7 +3552,7 @@
       <c r="C28" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E28" t="s">
@@ -3567,7 +3562,7 @@
         <v>42983.66574074074</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>732620</v>
       </c>
@@ -3577,7 +3572,7 @@
       <c r="C29" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E29" t="s">
@@ -3590,7 +3585,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="216" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>732622</v>
       </c>
@@ -3600,7 +3595,7 @@
       <c r="C30" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="3" t="s">
         <v>59</v>
       </c>
       <c r="E30" t="s">
@@ -3613,7 +3608,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>732623</v>
       </c>
@@ -3623,7 +3618,7 @@
       <c r="C31" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="3" t="s">
         <v>61</v>
       </c>
       <c r="E31" t="s">
@@ -3633,7 +3628,7 @@
         <v>42983.469826388893</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>732624</v>
       </c>
@@ -3643,7 +3638,7 @@
       <c r="C32" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="3" t="s">
         <v>63</v>
       </c>
       <c r="E32" t="s">
@@ -3653,7 +3648,7 @@
         <v>42983.357361111113</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>732625</v>
       </c>
@@ -3663,7 +3658,7 @@
       <c r="C33" t="s">
         <v>6</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="3" t="s">
         <v>65</v>
       </c>
       <c r="E33" t="s">
@@ -3676,7 +3671,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>732638</v>
       </c>
@@ -3686,7 +3681,7 @@
       <c r="C34" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="3" t="s">
         <v>67</v>
       </c>
       <c r="E34" t="s">
@@ -3696,7 +3691,7 @@
         <v>42978.677164351851</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>732643</v>
       </c>
@@ -3706,7 +3701,7 @@
       <c r="C35" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="3" t="s">
         <v>69</v>
       </c>
       <c r="E35" t="s">
@@ -3719,7 +3714,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>732644</v>
       </c>
@@ -3729,7 +3724,7 @@
       <c r="C36" t="s">
         <v>8</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="3" t="s">
         <v>71</v>
       </c>
       <c r="E36" t="s">
@@ -3739,7 +3734,7 @@
         <v>42977.359039351853</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>732645</v>
       </c>
@@ -3749,7 +3744,7 @@
       <c r="C37" t="s">
         <v>8</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="3" t="s">
         <v>73</v>
       </c>
       <c r="E37" t="s">
@@ -3762,7 +3757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>732646</v>
       </c>
@@ -3772,7 +3767,7 @@
       <c r="C38" t="s">
         <v>8</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="3" t="s">
         <v>75</v>
       </c>
       <c r="E38" t="s">
@@ -3785,7 +3780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>732647</v>
       </c>
@@ -3795,7 +3790,7 @@
       <c r="C39" t="s">
         <v>8</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="3" t="s">
         <v>77</v>
       </c>
       <c r="E39" t="s">
@@ -3805,7 +3800,7 @@
         <v>42976.41511574074</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>732650</v>
       </c>
@@ -3815,7 +3810,7 @@
       <c r="C40" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="3" t="s">
         <v>79</v>
       </c>
       <c r="E40" t="s">
@@ -3825,7 +3820,7 @@
         <v>42971.257905092592</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>732651</v>
       </c>
@@ -3835,7 +3830,7 @@
       <c r="C41" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="3" t="s">
         <v>81</v>
       </c>
       <c r="E41" t="s">
@@ -3845,7 +3840,7 @@
         <v>42968.573125000003</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>732652</v>
       </c>
@@ -3855,7 +3850,7 @@
       <c r="C42" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="3" t="s">
         <v>83</v>
       </c>
       <c r="E42" t="s">
@@ -3868,7 +3863,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>732653</v>
       </c>
@@ -3878,7 +3873,7 @@
       <c r="C43" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="3" t="s">
         <v>85</v>
       </c>
       <c r="E43" t="s">
@@ -3888,7 +3883,7 @@
         <v>42968.178368055553</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>732654</v>
       </c>
@@ -3898,7 +3893,7 @@
       <c r="C44" t="s">
         <v>8</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="3" t="s">
         <v>87</v>
       </c>
       <c r="E44" t="s">
@@ -3908,7 +3903,7 @@
         <v>42968.178171296298</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>732655</v>
       </c>
@@ -3918,7 +3913,7 @@
       <c r="C45" t="s">
         <v>8</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E45" t="s">
@@ -3931,7 +3926,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>732656</v>
       </c>
@@ -3941,7 +3936,7 @@
       <c r="C46" t="s">
         <v>8</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D46" s="3" t="s">
         <v>91</v>
       </c>
       <c r="E46" t="s">
@@ -3954,7 +3949,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>732658</v>
       </c>
@@ -3964,7 +3959,7 @@
       <c r="C47" t="s">
         <v>6</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D47" s="3" t="s">
         <v>93</v>
       </c>
       <c r="E47" t="s">
@@ -3977,7 +3972,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>732661</v>
       </c>
@@ -3987,7 +3982,7 @@
       <c r="C48" t="s">
         <v>8</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D48" s="3" t="s">
         <v>95</v>
       </c>
       <c r="E48" t="s">
@@ -4010,7 +4005,7 @@
       <c r="C49" t="s">
         <v>8</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" s="3" t="s">
         <v>97</v>
       </c>
       <c r="E49" t="s">
@@ -4023,7 +4018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="360" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>732663</v>
       </c>
@@ -4033,7 +4028,7 @@
       <c r="C50" t="s">
         <v>6</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D50" s="3" t="s">
         <v>99</v>
       </c>
       <c r="E50" t="s">
@@ -4046,7 +4041,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>732664</v>
       </c>
@@ -4056,7 +4051,7 @@
       <c r="C51" t="s">
         <v>8</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D51" s="3" t="s">
         <v>101</v>
       </c>
       <c r="E51" t="s">
@@ -4069,7 +4064,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>732667</v>
       </c>
@@ -4079,7 +4074,7 @@
       <c r="C52" t="s">
         <v>8</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D52" s="3" t="s">
         <v>103</v>
       </c>
       <c r="E52" t="s">
@@ -4092,7 +4087,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="288" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>732668</v>
       </c>
@@ -4102,7 +4097,7 @@
       <c r="C53" t="s">
         <v>8</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D53" s="3" t="s">
         <v>105</v>
       </c>
       <c r="E53" t="s">
@@ -4115,7 +4110,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>732670</v>
       </c>
@@ -4125,7 +4120,7 @@
       <c r="C54" t="s">
         <v>8</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D54" s="3" t="s">
         <v>107</v>
       </c>
       <c r="E54" t="s">
@@ -4138,7 +4133,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>732671</v>
       </c>
@@ -4148,7 +4143,7 @@
       <c r="C55" t="s">
         <v>8</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D55" s="3" t="s">
         <v>109</v>
       </c>
       <c r="E55" t="s">
@@ -4161,7 +4156,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="374.4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>732672</v>
       </c>
@@ -4171,7 +4166,7 @@
       <c r="C56" t="s">
         <v>8</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="D56" s="3" t="s">
         <v>111</v>
       </c>
       <c r="E56" t="s">
@@ -4184,7 +4179,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>732673</v>
       </c>
@@ -4194,7 +4189,7 @@
       <c r="C57" t="s">
         <v>8</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="D57" s="3" t="s">
         <v>113</v>
       </c>
       <c r="E57" t="s">
@@ -4204,7 +4199,7 @@
         <v>42962.446423611109</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>732674</v>
       </c>
@@ -4214,7 +4209,7 @@
       <c r="C58" t="s">
         <v>8</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D58" s="3" t="s">
         <v>115</v>
       </c>
       <c r="E58" t="s">
@@ -4227,7 +4222,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>732675</v>
       </c>
@@ -4237,7 +4232,7 @@
       <c r="C59" t="s">
         <v>8</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="D59" s="3" t="s">
         <v>117</v>
       </c>
       <c r="E59" t="s">
@@ -4250,7 +4245,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="403.2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>732679</v>
       </c>
@@ -4260,7 +4255,7 @@
       <c r="C60" t="s">
         <v>8</v>
       </c>
-      <c r="D60" s="4" t="s">
+      <c r="D60" s="3" t="s">
         <v>119</v>
       </c>
       <c r="E60" t="s">
@@ -4270,7 +4265,7 @@
         <v>42961.646863425929</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="388.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>732680</v>
       </c>
@@ -4280,7 +4275,7 @@
       <c r="C61" t="s">
         <v>8</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="D61" s="3" t="s">
         <v>121</v>
       </c>
       <c r="E61" t="s">
@@ -4290,7 +4285,7 @@
         <v>42961.518865740742</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="331.2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>732682</v>
       </c>
@@ -4300,7 +4295,7 @@
       <c r="C62" t="s">
         <v>8</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="D62" s="3" t="s">
         <v>123</v>
       </c>
       <c r="E62" t="s">
@@ -4310,7 +4305,7 @@
         <v>42961.456296296303</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>732683</v>
       </c>
@@ -4320,7 +4315,7 @@
       <c r="C63" t="s">
         <v>8</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="D63" s="3" t="s">
         <v>125</v>
       </c>
       <c r="E63" t="s">
@@ -4340,7 +4335,7 @@
       <c r="C64" t="s">
         <v>8</v>
       </c>
-      <c r="D64" s="4" t="s">
+      <c r="D64" s="3" t="s">
         <v>127</v>
       </c>
       <c r="E64" t="s">
@@ -4350,7 +4345,7 @@
         <v>42958.390127314808</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>732685</v>
       </c>
@@ -4360,7 +4355,7 @@
       <c r="C65" t="s">
         <v>8</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="D65" s="3" t="s">
         <v>129</v>
       </c>
       <c r="E65" t="s">
@@ -4370,7 +4365,7 @@
         <v>42957.359594907408</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>732686</v>
       </c>
@@ -4380,7 +4375,7 @@
       <c r="C66" t="s">
         <v>8</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="D66" s="3" t="s">
         <v>131</v>
       </c>
       <c r="E66" t="s">
@@ -4390,7 +4385,7 @@
         <v>42954.729143518518</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>732687</v>
       </c>
@@ -4400,7 +4395,7 @@
       <c r="C67" t="s">
         <v>8</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="D67" s="3" t="s">
         <v>133</v>
       </c>
       <c r="E67" t="s">
@@ -4410,7 +4405,7 @@
         <v>42954.581122685187</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>732688</v>
       </c>
@@ -4420,7 +4415,7 @@
       <c r="C68" t="s">
         <v>8</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="D68" s="3" t="s">
         <v>129</v>
       </c>
       <c r="E68" t="s">
@@ -4430,7 +4425,7 @@
         <v>42950.513368055559</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>732689</v>
       </c>
@@ -4440,7 +4435,7 @@
       <c r="C69" t="s">
         <v>8</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="D69" s="3" t="s">
         <v>136</v>
       </c>
       <c r="E69" t="s">
@@ -4453,7 +4448,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>732692</v>
       </c>
@@ -4463,7 +4458,7 @@
       <c r="C70" t="s">
         <v>8</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="D70" s="3" t="s">
         <v>138</v>
       </c>
       <c r="E70" t="s">
@@ -4473,7 +4468,7 @@
         <v>42949.398368055547</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>732693</v>
       </c>
@@ -4483,7 +4478,7 @@
       <c r="C71" t="s">
         <v>8</v>
       </c>
-      <c r="D71" s="4" t="s">
+      <c r="D71" s="3" t="s">
         <v>140</v>
       </c>
       <c r="E71" t="s">
@@ -4493,7 +4488,7 @@
         <v>42949.383206018523</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>732696</v>
       </c>
@@ -4503,7 +4498,7 @@
       <c r="C72" t="s">
         <v>8</v>
       </c>
-      <c r="D72" s="4" t="s">
+      <c r="D72" s="3" t="s">
         <v>142</v>
       </c>
       <c r="E72" t="s">
@@ -4513,7 +4508,7 @@
         <v>42946.568564814806</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>732698</v>
       </c>
@@ -4523,7 +4518,7 @@
       <c r="C73" t="s">
         <v>8</v>
       </c>
-      <c r="D73" s="4" t="s">
+      <c r="D73" s="3" t="s">
         <v>144</v>
       </c>
       <c r="E73" t="s">
@@ -4533,7 +4528,7 @@
         <v>42942.697881944441</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>732699</v>
       </c>
@@ -4543,7 +4538,7 @@
       <c r="C74" t="s">
         <v>8</v>
       </c>
-      <c r="D74" s="4" t="s">
+      <c r="D74" s="3" t="s">
         <v>146</v>
       </c>
       <c r="E74" t="s">
@@ -4553,7 +4548,7 @@
         <v>42942.586493055547</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="316.8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>732700</v>
       </c>
@@ -4563,7 +4558,7 @@
       <c r="C75" t="s">
         <v>8</v>
       </c>
-      <c r="D75" s="4" t="s">
+      <c r="D75" s="3" t="s">
         <v>148</v>
       </c>
       <c r="E75" t="s">
@@ -4573,7 +4568,7 @@
         <v>42941.668414351851</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>732705</v>
       </c>
@@ -4583,7 +4578,7 @@
       <c r="C76" t="s">
         <v>8</v>
       </c>
-      <c r="D76" s="4" t="s">
+      <c r="D76" s="3" t="s">
         <v>150</v>
       </c>
       <c r="E76" t="s">
@@ -4593,7 +4588,7 @@
         <v>42940.711550925917</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>732707</v>
       </c>
@@ -4603,7 +4598,7 @@
       <c r="C77" t="s">
         <v>8</v>
       </c>
-      <c r="D77" s="4" t="s">
+      <c r="D77" s="3" t="s">
         <v>152</v>
       </c>
       <c r="E77" t="s">
@@ -4616,7 +4611,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="388.8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>732711</v>
       </c>
@@ -4626,7 +4621,7 @@
       <c r="C78" t="s">
         <v>8</v>
       </c>
-      <c r="D78" s="4" t="s">
+      <c r="D78" s="3" t="s">
         <v>154</v>
       </c>
       <c r="E78" t="s">
@@ -4639,7 +4634,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>732714</v>
       </c>
@@ -4649,7 +4644,7 @@
       <c r="C79" t="s">
         <v>8</v>
       </c>
-      <c r="D79" s="4" t="s">
+      <c r="D79" s="3" t="s">
         <v>156</v>
       </c>
       <c r="E79" t="s">
@@ -4662,7 +4657,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>732715</v>
       </c>
@@ -4672,7 +4667,7 @@
       <c r="C80" t="s">
         <v>8</v>
       </c>
-      <c r="D80" s="4" t="s">
+      <c r="D80" s="3" t="s">
         <v>158</v>
       </c>
       <c r="E80" t="s">
@@ -4682,7 +4677,7 @@
         <v>42936.368703703702</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>732716</v>
       </c>
@@ -4692,7 +4687,7 @@
       <c r="C81" t="s">
         <v>8</v>
       </c>
-      <c r="D81" s="4" t="s">
+      <c r="D81" s="3" t="s">
         <v>160</v>
       </c>
       <c r="E81" t="s">
@@ -4705,7 +4700,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>732717</v>
       </c>
@@ -4715,7 +4710,7 @@
       <c r="C82" t="s">
         <v>8</v>
       </c>
-      <c r="D82" s="4" t="s">
+      <c r="D82" s="3" t="s">
         <v>162</v>
       </c>
       <c r="E82" t="s">
@@ -4728,7 +4723,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>732718</v>
       </c>
@@ -4738,7 +4733,7 @@
       <c r="C83" t="s">
         <v>8</v>
       </c>
-      <c r="D83" s="4" t="s">
+      <c r="D83" s="3" t="s">
         <v>164</v>
       </c>
       <c r="E83" t="s">
@@ -4748,7 +4743,7 @@
         <v>42935.680590277778</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>732722</v>
       </c>
@@ -4758,7 +4753,7 @@
       <c r="C84" t="s">
         <v>8</v>
       </c>
-      <c r="D84" s="4" t="s">
+      <c r="D84" s="3" t="s">
         <v>166</v>
       </c>
       <c r="E84" t="s">
@@ -4768,7 +4763,7 @@
         <v>42934.474328703713</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>732723</v>
       </c>
@@ -4778,7 +4773,7 @@
       <c r="C85" t="s">
         <v>8</v>
       </c>
-      <c r="D85" s="4" t="s">
+      <c r="D85" s="3" t="s">
         <v>168</v>
       </c>
       <c r="E85" t="s">
@@ -4791,7 +4786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>732725</v>
       </c>
@@ -4801,7 +4796,7 @@
       <c r="C86" t="s">
         <v>8</v>
       </c>
-      <c r="D86" s="4" t="s">
+      <c r="D86" s="3" t="s">
         <v>170</v>
       </c>
       <c r="E86" t="s">
@@ -4811,7 +4806,7 @@
         <v>42933.744652777779</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="316.8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>732726</v>
       </c>
@@ -4821,7 +4816,7 @@
       <c r="C87" t="s">
         <v>8</v>
       </c>
-      <c r="D87" s="4" t="s">
+      <c r="D87" s="3" t="s">
         <v>172</v>
       </c>
       <c r="E87" t="s">
@@ -4834,7 +4829,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>732727</v>
       </c>
@@ -4844,7 +4839,7 @@
       <c r="C88" t="s">
         <v>8</v>
       </c>
-      <c r="D88" s="4" t="s">
+      <c r="D88" s="3" t="s">
         <v>174</v>
       </c>
       <c r="E88" t="s">
@@ -4854,7 +4849,7 @@
         <v>42933.485891203702</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>732729</v>
       </c>
@@ -4864,7 +4859,7 @@
       <c r="C89" t="s">
         <v>8</v>
       </c>
-      <c r="D89" s="4" t="s">
+      <c r="D89" s="3" t="s">
         <v>176</v>
       </c>
       <c r="E89" t="s">
@@ -4877,7 +4872,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>732730</v>
       </c>
@@ -4887,7 +4882,7 @@
       <c r="C90" t="s">
         <v>8</v>
       </c>
-      <c r="D90" s="4" t="s">
+      <c r="D90" s="3" t="s">
         <v>178</v>
       </c>
       <c r="E90" t="s">
@@ -4897,7 +4892,7 @@
         <v>42930.255254629628</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>732731</v>
       </c>
@@ -4907,7 +4902,7 @@
       <c r="C91" t="s">
         <v>8</v>
       </c>
-      <c r="D91" s="4" t="s">
+      <c r="D91" s="3" t="s">
         <v>180</v>
       </c>
       <c r="E91" t="s">
@@ -4920,7 +4915,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="288" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>732732</v>
       </c>
@@ -4930,7 +4925,7 @@
       <c r="C92" t="s">
         <v>8</v>
       </c>
-      <c r="D92" s="4" t="s">
+      <c r="D92" s="3" t="s">
         <v>182</v>
       </c>
       <c r="E92" t="s">
@@ -4940,7 +4935,7 @@
         <v>42928.479675925933</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>732733</v>
       </c>
@@ -4950,7 +4945,7 @@
       <c r="C93" t="s">
         <v>8</v>
       </c>
-      <c r="D93" s="4" t="s">
+      <c r="D93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="E93" t="s">
@@ -4963,7 +4958,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>732734</v>
       </c>
@@ -4973,7 +4968,7 @@
       <c r="C94" t="s">
         <v>8</v>
       </c>
-      <c r="D94" s="4" t="s">
+      <c r="D94" s="3" t="s">
         <v>186</v>
       </c>
       <c r="E94" t="s">
@@ -4986,7 +4981,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>732735</v>
       </c>
@@ -4996,7 +4991,7 @@
       <c r="C95" t="s">
         <v>8</v>
       </c>
-      <c r="D95" s="4" t="s">
+      <c r="D95" s="3" t="s">
         <v>188</v>
       </c>
       <c r="E95" t="s">
@@ -5009,7 +5004,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>732738</v>
       </c>
@@ -5019,7 +5014,7 @@
       <c r="C96" t="s">
         <v>8</v>
       </c>
-      <c r="D96" s="4" t="s">
+      <c r="D96" s="3" t="s">
         <v>190</v>
       </c>
       <c r="E96" t="s">
@@ -5032,7 +5027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="403.2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>732740</v>
       </c>
@@ -5042,7 +5037,7 @@
       <c r="C97" t="s">
         <v>8</v>
       </c>
-      <c r="D97" s="4" t="s">
+      <c r="D97" s="3" t="s">
         <v>192</v>
       </c>
       <c r="E97" t="s">
@@ -5052,7 +5047,7 @@
         <v>42927.646527777782</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>732741</v>
       </c>
@@ -5062,7 +5057,7 @@
       <c r="C98" t="s">
         <v>8</v>
       </c>
-      <c r="D98" s="4" t="s">
+      <c r="D98" s="3" t="s">
         <v>194</v>
       </c>
       <c r="E98" t="s">
@@ -5072,7 +5067,7 @@
         <v>42927.436249999999</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>732743</v>
       </c>
@@ -5082,7 +5077,7 @@
       <c r="C99" t="s">
         <v>8</v>
       </c>
-      <c r="D99" s="4" t="s">
+      <c r="D99" s="3" t="s">
         <v>196</v>
       </c>
       <c r="E99" t="s">
@@ -5095,7 +5090,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>732744</v>
       </c>
@@ -5105,7 +5100,7 @@
       <c r="C100" t="s">
         <v>8</v>
       </c>
-      <c r="D100" s="4" t="s">
+      <c r="D100" s="3" t="s">
         <v>198</v>
       </c>
       <c r="E100" t="s">
@@ -5118,7 +5113,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>732747</v>
       </c>
@@ -5128,7 +5123,7 @@
       <c r="C101" t="s">
         <v>8</v>
       </c>
-      <c r="D101" s="4" t="s">
+      <c r="D101" s="3" t="s">
         <v>200</v>
       </c>
       <c r="E101" t="s">
@@ -5141,7 +5136,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>732302</v>
       </c>
@@ -5151,7 +5146,7 @@
       <c r="C102" t="s">
         <v>8</v>
       </c>
-      <c r="D102" s="4" t="s">
+      <c r="D102" s="3" t="s">
         <v>202</v>
       </c>
       <c r="E102" t="s">
@@ -5164,7 +5159,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>732305</v>
       </c>
@@ -5174,7 +5169,7 @@
       <c r="C103" t="s">
         <v>8</v>
       </c>
-      <c r="D103" s="4" t="s">
+      <c r="D103" s="3" t="s">
         <v>204</v>
       </c>
       <c r="E103" t="s">
@@ -5187,7 +5182,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>732752</v>
       </c>
@@ -5197,7 +5192,7 @@
       <c r="C104" t="s">
         <v>6</v>
       </c>
-      <c r="D104" s="4" t="s">
+      <c r="D104" s="3" t="s">
         <v>206</v>
       </c>
       <c r="E104" t="s">
@@ -5210,7 +5205,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>732758</v>
       </c>
@@ -5220,7 +5215,7 @@
       <c r="C105" t="s">
         <v>8</v>
       </c>
-      <c r="D105" s="4" t="s">
+      <c r="D105" s="3" t="s">
         <v>208</v>
       </c>
       <c r="E105" t="s">
@@ -5233,7 +5228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="331.2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>732778</v>
       </c>
@@ -5243,7 +5238,7 @@
       <c r="C106" t="s">
         <v>8</v>
       </c>
-      <c r="D106" s="4" t="s">
+      <c r="D106" s="3" t="s">
         <v>210</v>
       </c>
       <c r="E106" t="s">
@@ -5256,7 +5251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="360" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>732781</v>
       </c>
@@ -5266,7 +5261,7 @@
       <c r="C107" t="s">
         <v>8</v>
       </c>
-      <c r="D107" s="4" t="s">
+      <c r="D107" s="3" t="s">
         <v>212</v>
       </c>
       <c r="E107" t="s">
@@ -5279,7 +5274,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="288" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>732795</v>
       </c>
@@ -5289,7 +5284,7 @@
       <c r="C108" t="s">
         <v>8</v>
       </c>
-      <c r="D108" s="4" t="s">
+      <c r="D108" s="3" t="s">
         <v>214</v>
       </c>
       <c r="E108" t="s">
@@ -5302,7 +5297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>732802</v>
       </c>
@@ -5312,7 +5307,7 @@
       <c r="C109" t="s">
         <v>8</v>
       </c>
-      <c r="D109" s="4" t="s">
+      <c r="D109" s="3" t="s">
         <v>216</v>
       </c>
       <c r="E109" t="s">
@@ -5325,7 +5320,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>732821</v>
       </c>
@@ -5335,7 +5330,7 @@
       <c r="C110" t="s">
         <v>8</v>
       </c>
-      <c r="D110" s="4" t="s">
+      <c r="D110" s="3" t="s">
         <v>218</v>
       </c>
       <c r="E110" t="s">
@@ -5348,7 +5343,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>732825</v>
       </c>
@@ -5358,7 +5353,7 @@
       <c r="C111" t="s">
         <v>8</v>
       </c>
-      <c r="D111" s="4" t="s">
+      <c r="D111" s="3" t="s">
         <v>220</v>
       </c>
       <c r="E111" t="s">
@@ -5371,7 +5366,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="216" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>732833</v>
       </c>
@@ -5381,7 +5376,7 @@
       <c r="C112" t="s">
         <v>8</v>
       </c>
-      <c r="D112" s="4" t="s">
+      <c r="D112" s="3" t="s">
         <v>222</v>
       </c>
       <c r="E112" t="s">
@@ -5414,7 +5409,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="216" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>732844</v>
       </c>
@@ -5424,7 +5419,7 @@
       <c r="C114" t="s">
         <v>8</v>
       </c>
-      <c r="D114" s="4" t="s">
+      <c r="D114" s="3" t="s">
         <v>225</v>
       </c>
       <c r="E114" t="s">
@@ -5437,7 +5432,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>732847</v>
       </c>
@@ -5447,7 +5442,7 @@
       <c r="C115" t="s">
         <v>8</v>
       </c>
-      <c r="D115" s="4" t="s">
+      <c r="D115" s="3" t="s">
         <v>227</v>
       </c>
       <c r="E115" t="s">
@@ -5470,7 +5465,7 @@
       <c r="C116" t="s">
         <v>8</v>
       </c>
-      <c r="D116" s="4" t="s">
+      <c r="D116" s="3" t="s">
         <v>229</v>
       </c>
       <c r="E116" t="s">
@@ -5483,7 +5478,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>732854</v>
       </c>
@@ -5493,7 +5488,7 @@
       <c r="C117" t="s">
         <v>8</v>
       </c>
-      <c r="D117" s="4" t="s">
+      <c r="D117" s="3" t="s">
         <v>231</v>
       </c>
       <c r="E117" t="s">
@@ -5516,7 +5511,7 @@
       <c r="C118" t="s">
         <v>8</v>
       </c>
-      <c r="D118" s="4" t="s">
+      <c r="D118" s="3" t="s">
         <v>233</v>
       </c>
       <c r="E118" t="s">
@@ -5539,7 +5534,7 @@
       <c r="C119" t="s">
         <v>8</v>
       </c>
-      <c r="D119" s="4" t="s">
+      <c r="D119" s="3" t="s">
         <v>235</v>
       </c>
       <c r="E119" t="s">
@@ -5552,7 +5547,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>732857</v>
       </c>
@@ -5562,7 +5557,7 @@
       <c r="C120" t="s">
         <v>8</v>
       </c>
-      <c r="D120" s="4" t="s">
+      <c r="D120" s="3" t="s">
         <v>237</v>
       </c>
       <c r="E120" t="s">
@@ -5575,7 +5570,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>732858</v>
       </c>
@@ -5585,7 +5580,7 @@
       <c r="C121" t="s">
         <v>8</v>
       </c>
-      <c r="D121" s="4" t="s">
+      <c r="D121" s="3" t="s">
         <v>239</v>
       </c>
       <c r="E121" t="s">
@@ -5598,7 +5593,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>732859</v>
       </c>
@@ -5608,7 +5603,7 @@
       <c r="C122" t="s">
         <v>8</v>
       </c>
-      <c r="D122" s="4" t="s">
+      <c r="D122" s="3" t="s">
         <v>241</v>
       </c>
       <c r="E122" t="s">
@@ -5621,7 +5616,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>732860</v>
       </c>
@@ -5631,7 +5626,7 @@
       <c r="C123" t="s">
         <v>8</v>
       </c>
-      <c r="D123" s="4" t="s">
+      <c r="D123" s="3" t="s">
         <v>243</v>
       </c>
       <c r="E123" t="s">
@@ -5644,7 +5639,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>732863</v>
       </c>
@@ -5654,7 +5649,7 @@
       <c r="C124" t="s">
         <v>8</v>
       </c>
-      <c r="D124" s="4" t="s">
+      <c r="D124" s="3" t="s">
         <v>245</v>
       </c>
       <c r="E124" t="s">
@@ -5667,7 +5662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>732867</v>
       </c>
@@ -5677,7 +5672,7 @@
       <c r="C125" t="s">
         <v>6</v>
       </c>
-      <c r="D125" s="4" t="s">
+      <c r="D125" s="3" t="s">
         <v>247</v>
       </c>
       <c r="E125" t="s">
@@ -5690,7 +5685,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>732882</v>
       </c>
@@ -5700,7 +5695,7 @@
       <c r="C126" t="s">
         <v>6</v>
       </c>
-      <c r="D126" s="4" t="s">
+      <c r="D126" s="3" t="s">
         <v>249</v>
       </c>
       <c r="E126" t="s">
@@ -5713,7 +5708,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>732905</v>
       </c>
@@ -5723,7 +5718,7 @@
       <c r="C127" t="s">
         <v>8</v>
       </c>
-      <c r="D127" s="4" t="s">
+      <c r="D127" s="3" t="s">
         <v>251</v>
       </c>
       <c r="E127" t="s">
@@ -5736,7 +5731,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="360" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>732906</v>
       </c>
@@ -5746,7 +5741,7 @@
       <c r="C128" t="s">
         <v>8</v>
       </c>
-      <c r="D128" s="4" t="s">
+      <c r="D128" s="3" t="s">
         <v>253</v>
       </c>
       <c r="E128" t="s">
@@ -5759,7 +5754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="331.2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>732907</v>
       </c>
@@ -5769,7 +5764,7 @@
       <c r="C129" t="s">
         <v>8</v>
       </c>
-      <c r="D129" s="4" t="s">
+      <c r="D129" s="3" t="s">
         <v>255</v>
       </c>
       <c r="E129" t="s">
@@ -5782,7 +5777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>732908</v>
       </c>
@@ -5792,7 +5787,7 @@
       <c r="C130" t="s">
         <v>8</v>
       </c>
-      <c r="D130" s="4" t="s">
+      <c r="D130" s="3" t="s">
         <v>257</v>
       </c>
       <c r="E130" t="s">
@@ -5805,7 +5800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>732909</v>
       </c>
@@ -5815,7 +5810,7 @@
       <c r="C131" t="s">
         <v>6</v>
       </c>
-      <c r="D131" s="4" t="s">
+      <c r="D131" s="3" t="s">
         <v>259</v>
       </c>
       <c r="E131" t="s">
@@ -5828,7 +5823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>732941</v>
       </c>
@@ -5838,7 +5833,7 @@
       <c r="C132" t="s">
         <v>8</v>
       </c>
-      <c r="D132" s="4" t="s">
+      <c r="D132" s="3" t="s">
         <v>261</v>
       </c>
       <c r="E132" t="s">
@@ -5851,7 +5846,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>732945</v>
       </c>
@@ -5861,7 +5856,7 @@
       <c r="C133" t="s">
         <v>8</v>
       </c>
-      <c r="D133" s="4" t="s">
+      <c r="D133" s="3" t="s">
         <v>263</v>
       </c>
       <c r="E133" t="s">
@@ -5874,7 +5869,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>732965</v>
       </c>
@@ -5884,7 +5879,7 @@
       <c r="C134" t="s">
         <v>6</v>
       </c>
-      <c r="D134" s="4" t="s">
+      <c r="D134" s="3" t="s">
         <v>265</v>
       </c>
       <c r="E134" t="s">
@@ -5897,7 +5892,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="288" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>732977</v>
       </c>
@@ -5907,7 +5902,7 @@
       <c r="C135" t="s">
         <v>8</v>
       </c>
-      <c r="D135" s="4" t="s">
+      <c r="D135" s="3" t="s">
         <v>267</v>
       </c>
       <c r="E135" t="s">
@@ -5930,7 +5925,7 @@
       <c r="C136" t="s">
         <v>8</v>
       </c>
-      <c r="D136" s="4" t="s">
+      <c r="D136" s="3" t="s">
         <v>269</v>
       </c>
       <c r="E136" t="s">
@@ -5943,7 +5938,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>733000</v>
       </c>
@@ -5953,7 +5948,7 @@
       <c r="C137" t="s">
         <v>8</v>
       </c>
-      <c r="D137" s="4" t="s">
+      <c r="D137" s="3" t="s">
         <v>271</v>
       </c>
       <c r="E137" t="s">
@@ -5966,7 +5961,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>733050</v>
       </c>
@@ -5976,7 +5971,7 @@
       <c r="C138" t="s">
         <v>8</v>
       </c>
-      <c r="D138" s="4" t="s">
+      <c r="D138" s="3" t="s">
         <v>273</v>
       </c>
       <c r="E138" t="s">
@@ -5989,7 +5984,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>733054</v>
       </c>
@@ -5999,7 +5994,7 @@
       <c r="C139" t="s">
         <v>8</v>
       </c>
-      <c r="D139" s="4" t="s">
+      <c r="D139" s="3" t="s">
         <v>275</v>
       </c>
       <c r="E139" t="s">
@@ -6012,7 +6007,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>733055</v>
       </c>
@@ -6022,7 +6017,7 @@
       <c r="C140" t="s">
         <v>8</v>
       </c>
-      <c r="D140" s="4" t="s">
+      <c r="D140" s="3" t="s">
         <v>277</v>
       </c>
       <c r="E140" t="s">
@@ -6035,7 +6030,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="216" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>733056</v>
       </c>
@@ -6045,7 +6040,7 @@
       <c r="C141" t="s">
         <v>8</v>
       </c>
-      <c r="D141" s="4" t="s">
+      <c r="D141" s="3" t="s">
         <v>279</v>
       </c>
       <c r="E141" t="s">
@@ -6058,7 +6053,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>733057</v>
       </c>
@@ -6068,7 +6063,7 @@
       <c r="C142" t="s">
         <v>8</v>
       </c>
-      <c r="D142" s="4" t="s">
+      <c r="D142" s="3" t="s">
         <v>281</v>
       </c>
       <c r="E142" t="s">
@@ -6081,7 +6076,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>733058</v>
       </c>
@@ -6091,7 +6086,7 @@
       <c r="C143" t="s">
         <v>8</v>
       </c>
-      <c r="D143" s="4" t="s">
+      <c r="D143" s="3" t="s">
         <v>283</v>
       </c>
       <c r="E143" t="s">
@@ -6104,7 +6099,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>733059</v>
       </c>
@@ -6114,7 +6109,7 @@
       <c r="C144" t="s">
         <v>8</v>
       </c>
-      <c r="D144" s="4" t="s">
+      <c r="D144" s="3" t="s">
         <v>285</v>
       </c>
       <c r="E144" t="s">
@@ -6127,7 +6122,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>733060</v>
       </c>
@@ -6137,7 +6132,7 @@
       <c r="C145" t="s">
         <v>6</v>
       </c>
-      <c r="D145" s="4" t="s">
+      <c r="D145" s="3" t="s">
         <v>287</v>
       </c>
       <c r="E145" t="s">
@@ -6150,7 +6145,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>733084</v>
       </c>
@@ -6160,7 +6155,7 @@
       <c r="C146" t="s">
         <v>8</v>
       </c>
-      <c r="D146" s="4" t="s">
+      <c r="D146" s="3" t="s">
         <v>289</v>
       </c>
       <c r="E146" t="s">
@@ -6173,7 +6168,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>733085</v>
       </c>
@@ -6183,7 +6178,7 @@
       <c r="C147" t="s">
         <v>8</v>
       </c>
-      <c r="D147" s="4" t="s">
+      <c r="D147" s="3" t="s">
         <v>291</v>
       </c>
       <c r="E147" t="s">
@@ -6196,7 +6191,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>733086</v>
       </c>
@@ -6206,7 +6201,7 @@
       <c r="C148" t="s">
         <v>6</v>
       </c>
-      <c r="D148" s="4" t="s">
+      <c r="D148" s="3" t="s">
         <v>293</v>
       </c>
       <c r="E148" t="s">
@@ -6219,7 +6214,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="288" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>733093</v>
       </c>
@@ -6229,7 +6224,7 @@
       <c r="C149" t="s">
         <v>8</v>
       </c>
-      <c r="D149" s="4" t="s">
+      <c r="D149" s="3" t="s">
         <v>295</v>
       </c>
       <c r="E149" t="s">
@@ -6242,7 +6237,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>733100</v>
       </c>
@@ -6252,7 +6247,7 @@
       <c r="C150" t="s">
         <v>8</v>
       </c>
-      <c r="D150" s="4" t="s">
+      <c r="D150" s="3" t="s">
         <v>297</v>
       </c>
       <c r="E150" t="s">
@@ -6265,7 +6260,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>733112</v>
       </c>
@@ -6275,7 +6270,7 @@
       <c r="C151" t="s">
         <v>8</v>
       </c>
-      <c r="D151" s="4" t="s">
+      <c r="D151" s="3" t="s">
         <v>299</v>
       </c>
       <c r="E151" t="s">
@@ -6288,7 +6283,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="388.8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>733113</v>
       </c>
@@ -6298,7 +6293,7 @@
       <c r="C152" t="s">
         <v>8</v>
       </c>
-      <c r="D152" s="4" t="s">
+      <c r="D152" s="3" t="s">
         <v>301</v>
       </c>
       <c r="E152" t="s">
@@ -6311,7 +6306,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>733116</v>
       </c>
@@ -6321,7 +6316,7 @@
       <c r="C153" t="s">
         <v>8</v>
       </c>
-      <c r="D153" s="4" t="s">
+      <c r="D153" s="3" t="s">
         <v>303</v>
       </c>
       <c r="E153" t="s">
@@ -6334,7 +6329,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>733119</v>
       </c>
@@ -6344,7 +6339,7 @@
       <c r="C154" t="s">
         <v>8</v>
       </c>
-      <c r="D154" s="4" t="s">
+      <c r="D154" s="3" t="s">
         <v>305</v>
       </c>
       <c r="E154" t="s">
@@ -6357,7 +6352,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="374.4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>733121</v>
       </c>
@@ -6367,7 +6362,7 @@
       <c r="C155" t="s">
         <v>8</v>
       </c>
-      <c r="D155" s="4" t="s">
+      <c r="D155" s="3" t="s">
         <v>307</v>
       </c>
       <c r="E155" t="s">
@@ -6380,7 +6375,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>733126</v>
       </c>
@@ -6390,7 +6385,7 @@
       <c r="C156" t="s">
         <v>8</v>
       </c>
-      <c r="D156" s="4" t="s">
+      <c r="D156" s="3" t="s">
         <v>309</v>
       </c>
       <c r="E156" t="s">
@@ -6443,7 +6438,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="360" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>733152</v>
       </c>
@@ -6453,7 +6448,7 @@
       <c r="C159" t="s">
         <v>6</v>
       </c>
-      <c r="D159" s="4" t="s">
+      <c r="D159" s="3" t="s">
         <v>313</v>
       </c>
       <c r="E159" t="s">
@@ -6466,7 +6461,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>733164</v>
       </c>
@@ -6476,7 +6471,7 @@
       <c r="C160" t="s">
         <v>8</v>
       </c>
-      <c r="D160" s="4" t="s">
+      <c r="D160" s="3" t="s">
         <v>315</v>
       </c>
       <c r="E160" t="s">
@@ -6489,7 +6484,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="403.2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>733186</v>
       </c>
@@ -6499,7 +6494,7 @@
       <c r="C161" t="s">
         <v>8</v>
       </c>
-      <c r="D161" s="4" t="s">
+      <c r="D161" s="3" t="s">
         <v>317</v>
       </c>
       <c r="E161" t="s">
@@ -6512,7 +6507,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>733222</v>
       </c>
@@ -6522,7 +6517,7 @@
       <c r="C162" t="s">
         <v>6</v>
       </c>
-      <c r="D162" s="4" t="s">
+      <c r="D162" s="3" t="s">
         <v>319</v>
       </c>
       <c r="E162" t="s">
@@ -6535,7 +6530,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>733247</v>
       </c>
@@ -6545,7 +6540,7 @@
       <c r="C163" t="s">
         <v>6</v>
       </c>
-      <c r="D163" s="4" t="s">
+      <c r="D163" s="3" t="s">
         <v>321</v>
       </c>
       <c r="E163" t="s">
@@ -6558,7 +6553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>733249</v>
       </c>
@@ -6568,7 +6563,7 @@
       <c r="C164" t="s">
         <v>6</v>
       </c>
-      <c r="D164" s="4" t="s">
+      <c r="D164" s="3" t="s">
         <v>323</v>
       </c>
       <c r="E164" t="s">
@@ -6581,7 +6576,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>733266</v>
       </c>
@@ -6591,7 +6586,7 @@
       <c r="C165" t="s">
         <v>6</v>
       </c>
-      <c r="D165" s="4" t="s">
+      <c r="D165" s="3" t="s">
         <v>325</v>
       </c>
       <c r="E165" t="s">
@@ -6604,7 +6599,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="403.2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>733271</v>
       </c>
@@ -6614,7 +6609,7 @@
       <c r="C166" t="s">
         <v>6</v>
       </c>
-      <c r="D166" s="4" t="s">
+      <c r="D166" s="3" t="s">
         <v>327</v>
       </c>
       <c r="E166" t="s">
@@ -6627,7 +6622,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="216" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>733278</v>
       </c>
@@ -6637,7 +6632,7 @@
       <c r="C167" t="s">
         <v>8</v>
       </c>
-      <c r="D167" s="4" t="s">
+      <c r="D167" s="3" t="s">
         <v>329</v>
       </c>
       <c r="E167" t="s">
@@ -6650,7 +6645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>733283</v>
       </c>
@@ -6660,7 +6655,7 @@
       <c r="C168" t="s">
         <v>8</v>
       </c>
-      <c r="D168" s="4" t="s">
+      <c r="D168" s="3" t="s">
         <v>331</v>
       </c>
       <c r="E168" t="s">
@@ -6673,7 +6668,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>733364</v>
       </c>
@@ -6683,7 +6678,7 @@
       <c r="C169" t="s">
         <v>8</v>
       </c>
-      <c r="D169" s="4" t="s">
+      <c r="D169" s="3" t="s">
         <v>333</v>
       </c>
       <c r="E169" t="s">
@@ -6696,7 +6691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>733369</v>
       </c>
@@ -6706,7 +6701,7 @@
       <c r="C170" t="s">
         <v>8</v>
       </c>
-      <c r="D170" s="4" t="s">
+      <c r="D170" s="3" t="s">
         <v>335</v>
       </c>
       <c r="E170" t="s">
@@ -6719,7 +6714,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>733581</v>
       </c>
@@ -6729,7 +6724,7 @@
       <c r="C171" t="s">
         <v>8</v>
       </c>
-      <c r="D171" s="4" t="s">
+      <c r="D171" s="3" t="s">
         <v>337</v>
       </c>
       <c r="E171" t="s">
@@ -6742,7 +6737,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="172" spans="1:7" ht="331.2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>733647</v>
       </c>
@@ -6752,7 +6747,7 @@
       <c r="C172" t="s">
         <v>8</v>
       </c>
-      <c r="D172" s="4" t="s">
+      <c r="D172" s="3" t="s">
         <v>339</v>
       </c>
       <c r="E172" t="s">
@@ -6765,7 +6760,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="173" spans="1:7" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>735846</v>
       </c>
@@ -6775,7 +6770,7 @@
       <c r="C173" t="s">
         <v>6</v>
       </c>
-      <c r="D173" s="4" t="s">
+      <c r="D173" s="3" t="s">
         <v>341</v>
       </c>
       <c r="E173" t="s">
